--- a/src/services/templates/templateRobots.xlsx
+++ b/src/services/templates/templateRobots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8029EBBF-6C5C-F048-9259-97688BA6EE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D8EBF-E73F-6A47-B928-EB343794379C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
@@ -128,7 +128,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +221,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,7 +544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.28515625" defaultRowHeight="20"/>
@@ -546,17 +555,17 @@
     <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="21.28515625" style="1"/>
@@ -572,47 +581,47 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>17</v>

--- a/src/services/templates/templateRobots.xlsx
+++ b/src/services/templates/templateRobots.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D8EBF-E73F-6A47-B928-EB343794379C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81756E-4847-674C-9DFE-D673B606D921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="2960" yWindow="2300" windowWidth="51200" windowHeight="28340" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -90,6 +91,121 @@
   </si>
   <si>
     <t>ExecutionSettings</t>
+  </si>
+  <si>
+    <t>↑マシン名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Unattended</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machine_0191</t>
+  </si>
+  <si>
+    <t>NonProduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attended</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>PB¥PB001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB¥PB002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pbkino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pbkino2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windowsアカウント(ドメイン指定は「\」なのでご注意</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シテイハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StudioX もOK?(未確認)</t>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">ミカクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑Robot名</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットグループはココでは指定出来ない</t>
+    <rPh sb="13" eb="17">
+      <t xml:space="preserve">シテイデキナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2020/03/29時点未対応)</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ジテン </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">ミタイオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unattendedのパスワードは今のところ未対応</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">イマノトコロ </t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">ミタイオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robo001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robo002</t>
+  </si>
+  <si>
+    <t>Robo003</t>
+  </si>
+  <si>
+    <t>Robo004</t>
   </si>
 </sst>
 </file>
@@ -148,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,47 +273,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="hair">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -214,16 +300,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,7 +630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.28515625" defaultRowHeight="20"/>
@@ -575,22 +661,22 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -626,8 +712,308 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CDF05B-7826-414A-BF3E-64178EFD17C6}">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.28515625" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="21.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="G11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
